--- a/Prestamos 2.0/perdida.xlsx
+++ b/Prestamos 2.0/perdida.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Cliente</t>
   </si>
   <si>
-    <t>Cuota</t>
-  </si>
-  <si>
     <t>filtro1</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>Edison Rodriguez</t>
   </si>
   <si>
-    <t>Eduardo Antonio : Kikito</t>
-  </si>
-  <si>
     <t>Hector Eduardo de la Paz: salami</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t>Yeison Mariano</t>
   </si>
   <si>
-    <t>Yuleide montero rodriguez: yuli</t>
-  </si>
-  <si>
     <t>total perdida</t>
   </si>
   <si>
@@ -140,12 +131,6 @@
     <t>Luis Manuel Trinidad Perez: el gringo</t>
   </si>
   <si>
-    <t>Elauteria calcaño bueno: yinette</t>
-  </si>
-  <si>
-    <t>Eugenia Melo</t>
-  </si>
-  <si>
     <t>Felix Alberto Encarnacion Mendez</t>
   </si>
   <si>
@@ -168,6 +153,36 @@
   </si>
   <si>
     <t>bebe</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>Joseph stephen: cucu</t>
+  </si>
+  <si>
+    <t>Saul Reyes</t>
+  </si>
+  <si>
+    <t>Janvier avenir : Javiel</t>
+  </si>
+  <si>
+    <t>Robinson Sanchez Tirado: key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayra Magalis Olaverria Soto </t>
+  </si>
+  <si>
+    <t>Ramon Manuel</t>
+  </si>
+  <si>
+    <t>Francisco de la Rosa</t>
+  </si>
+  <si>
+    <t>Jose de la Rosa: Pilloyo</t>
+  </si>
+  <si>
+    <t>Antonio Belen Sanchez: tony</t>
   </si>
 </sst>
 </file>
@@ -286,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -328,16 +343,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -635,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -652,30 +663,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="15" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B2" s="11">
-        <v>10980</v>
+        <v>8400</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -683,7 +694,7 @@
       <c r="F2"/>
       <c r="G2"/>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6">
         <v>5300</v>
@@ -691,10 +702,10 @@
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A3" s="15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B3" s="11">
-        <v>8400</v>
+        <v>5150</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -702,7 +713,7 @@
       <c r="F3"/>
       <c r="G3"/>
       <c r="I3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="6">
         <v>2600</v>
@@ -710,10 +721,10 @@
     </row>
     <row r="4" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A4" s="15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11">
-        <v>5150</v>
+        <v>4825</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -721,7 +732,7 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="I4" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J4" s="6">
         <v>2070</v>
@@ -729,10 +740,10 @@
     </row>
     <row r="5" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A5" s="15" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B5" s="11">
-        <v>4825</v>
+        <v>4100</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -740,7 +751,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="I5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J5" s="6">
         <v>3200</v>
@@ -748,10 +759,10 @@
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A6" s="15" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -761,10 +772,10 @@
     </row>
     <row r="7" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A7" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11">
-        <v>4000</v>
+        <v>3980</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -776,10 +787,10 @@
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A8" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="11">
-        <v>3980</v>
+        <v>3800</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -789,10 +800,10 @@
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A9" s="15" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11">
-        <v>3800</v>
+        <v>3650</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -802,10 +813,10 @@
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A10" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="11">
-        <v>3650</v>
+        <v>3500</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -815,7 +826,7 @@
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A11" s="15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11">
         <v>3500</v>
@@ -830,10 +841,10 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A12" s="15" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11">
-        <v>3500</v>
+        <v>3250</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -843,10 +854,10 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A13" s="15" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="B13" s="11">
-        <v>3250</v>
+        <v>3000</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -858,10 +869,10 @@
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A14" s="15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" s="11">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -873,10 +884,10 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A15" s="15" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B15" s="11">
-        <v>2900</v>
+        <v>2375</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -888,10 +899,10 @@
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="15.75">
       <c r="A16" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="11">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -903,10 +914,10 @@
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" ht="15.75">
       <c r="A17" s="15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B17" s="11">
-        <v>2375</v>
+        <v>2250</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -918,10 +929,10 @@
     </row>
     <row r="18" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A18" s="15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" s="11">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -930,11 +941,11 @@
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:10" s="12" customFormat="1" ht="15.75">
-      <c r="A19" s="15" t="s">
-        <v>47</v>
+      <c r="A19" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B19" s="11">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -944,10 +955,10 @@
     </row>
     <row r="20" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A20" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" s="11">
-        <v>2000</v>
+        <v>1850</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -956,11 +967,11 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:10" s="12" customFormat="1" ht="15.75">
-      <c r="A21" s="16" t="s">
-        <v>49</v>
+      <c r="A21" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B21" s="11">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -970,10 +981,10 @@
     </row>
     <row r="22" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A22" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B22" s="11">
-        <v>1850</v>
+        <v>1375</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -983,10 +994,10 @@
     </row>
     <row r="23" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A23" s="15" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B23" s="11">
-        <v>1830</v>
+        <v>1300</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -996,10 +1007,10 @@
     </row>
     <row r="24" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A24" s="15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B24" s="11">
-        <v>1400</v>
+        <v>1290</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1009,10 +1020,10 @@
     </row>
     <row r="25" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A25" s="15" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B25" s="11">
-        <v>1375</v>
+        <v>1100</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1022,10 +1033,10 @@
     </row>
     <row r="26" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A26" s="15" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B26" s="11">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1035,10 +1046,10 @@
     </row>
     <row r="27" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A27" s="15" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B27" s="11">
-        <v>1290</v>
+        <v>1000</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1048,10 +1059,10 @@
     </row>
     <row r="28" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A28" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B28" s="11">
-        <v>1100</v>
+        <v>987</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -1061,10 +1072,10 @@
     </row>
     <row r="29" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A29" s="15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="11">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1074,10 +1085,10 @@
     </row>
     <row r="30" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A30" s="15" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B30" s="11">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -1087,10 +1098,10 @@
     </row>
     <row r="31" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A31" s="15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B31" s="11">
-        <v>987</v>
+        <v>275</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1100,10 +1111,10 @@
     </row>
     <row r="32" spans="1:10" s="12" customFormat="1" ht="15.75">
       <c r="A32" s="15" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B32" s="11">
-        <v>800</v>
+        <v>250</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -1112,11 +1123,12 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:10" s="12" customFormat="1" ht="15.75">
-      <c r="A33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="11">
-        <v>600</v>
+      <c r="A33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="8">
+        <f>SUM(B1:B32)</f>
+        <v>77807</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -1125,12 +1137,8 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:10" s="12" customFormat="1" ht="15.75">
-      <c r="A34" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="11">
-        <v>500</v>
-      </c>
+      <c r="A34"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -1138,12 +1146,8 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:10" s="12" customFormat="1" ht="15.75">
-      <c r="A35" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="11">
-        <v>300</v>
-      </c>
+      <c r="A35"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
@@ -1153,12 +1157,8 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36" s="11">
-        <v>275</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
@@ -1166,12 +1166,8 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A37" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="11">
-        <v>250</v>
-      </c>
+      <c r="A37"/>
+      <c r="B37" s="7"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1188,13 +1184,6 @@
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="8">
-        <f>SUM(B1:B38)</f>
-        <v>94317</v>
-      </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1212,11 +1201,6 @@
   <sortState ref="A2:G41">
     <sortCondition descending="1" ref="B1"/>
   </sortState>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
@@ -1224,166 +1208,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
-    <col min="3" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="7" customWidth="1"/>
+    <col min="3" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6">
-        <v>500</v>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75">
+      <c r="A2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11">
+        <v>-500</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="H2"/>
       <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="3"/>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="3"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="3"/>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="3"/>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="3"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.75">
-      <c r="A17" s="3"/>
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75">
-      <c r="A18" s="3"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.75">
-      <c r="A20" s="3"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="15.75">
-      <c r="A21" s="3"/>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:2" ht="15.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="8">
-        <f>SUM(B2:B23)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="17">
+        <v>-5100</v>
+      </c>
+      <c r="C3" s="17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="17">
+        <v>-2300</v>
+      </c>
+      <c r="C4" s="17">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="17">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="17">
+        <v>-1550</v>
+      </c>
+      <c r="C6" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="17">
+        <v>-1900</v>
+      </c>
+      <c r="C7" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="17">
+        <v>-3400</v>
+      </c>
+      <c r="C8" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="9">
-        <f>B25-B24</f>
-        <v>-500</v>
+      <c r="B9" s="17">
+        <v>-2900</v>
+      </c>
+      <c r="C9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="17">
+        <v>-21777</v>
+      </c>
+      <c r="C10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="17">
+        <v>-10000</v>
+      </c>
+      <c r="C11" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="17">
+        <v>-12000</v>
+      </c>
+      <c r="C12" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="17">
+        <v>-1433</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="17">
+        <v>-2485</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="17">
+        <v>-10980</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8">
+        <f>SUM(B2:B16)</f>
+        <v>-78325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <v>74502.41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9">
+        <f>B18+B17</f>
+        <v>-3822.5899999999965</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B26">
+  <conditionalFormatting sqref="B19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Prestamos 2.0/perdida.xlsx
+++ b/Prestamos 2.0/perdida.xlsx
@@ -1210,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1277,6 +1277,9 @@
       <c r="C4" s="17">
         <v>22</v>
       </c>
+      <c r="G4">
+        <v>800</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="17" t="s">
@@ -1331,6 +1334,9 @@
       </c>
       <c r="C9" s="17">
         <v>5</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:9">

--- a/Prestamos 2.0/perdida.xlsx
+++ b/Prestamos 2.0/perdida.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personales\utilitario\Prestamos 2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="11655" windowHeight="2580" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="11655" windowHeight="2580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Junio atras" sheetId="1" r:id="rId1"/>
     <sheet name="Julio" sheetId="2" r:id="rId2"/>
+    <sheet name="Perdida general 260819" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Cliente</t>
   </si>
@@ -183,13 +189,41 @@
   </si>
   <si>
     <t>Antonio Belen Sanchez: tony</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Pascual Corcino Almonte</t>
+  </si>
+  <si>
+    <t>Yonatan Ramirez Moises</t>
+  </si>
+  <si>
+    <t>Yuleide montero rodriguez: yuli</t>
+  </si>
+  <si>
+    <t>Odali hernandez bueno:papi chulo</t>
+  </si>
+  <si>
+    <t>Kenia Montero Rodriguez</t>
+  </si>
+  <si>
+    <t>la altagracia</t>
+  </si>
+  <si>
+    <t>el abanico por la baja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +296,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,6 +329,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,10 +345,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -344,8 +392,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -356,11 +410,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,7 +464,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,9 +496,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -468,6 +531,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -643,14 +707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
@@ -658,7 +722,7 @@
     <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
@@ -700,7 +764,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
@@ -719,7 +783,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="4" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>16</v>
       </c>
@@ -738,7 +802,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>41</v>
       </c>
@@ -757,7 +821,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="6" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>21</v>
       </c>
@@ -770,7 +834,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="7" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
@@ -785,7 +849,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>30</v>
       </c>
@@ -798,7 +862,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
@@ -811,7 +875,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="10" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
@@ -824,7 +888,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="11" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
@@ -839,7 +903,7 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="12" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
@@ -852,7 +916,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="13" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
@@ -867,7 +931,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
@@ -882,7 +946,7 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="15" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>28</v>
       </c>
@@ -897,7 +961,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
@@ -912,7 +976,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="15.75">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
@@ -927,7 +991,7 @@
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
     </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="18" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>22</v>
       </c>
@@ -940,7 +1004,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="19" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>44</v>
       </c>
@@ -953,7 +1017,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="20" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>32</v>
       </c>
@@ -966,7 +1030,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="21" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>31</v>
       </c>
@@ -979,7 +1043,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
     </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="22" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>27</v>
       </c>
@@ -992,7 +1056,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="23" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1069,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>25</v>
       </c>
@@ -1018,7 +1082,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +1095,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="26" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1108,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="27" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1121,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="28" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1134,7 @@
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="29" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1147,7 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="30" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>29</v>
       </c>
@@ -1096,7 +1160,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="31" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
@@ -1109,7 +1173,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="32" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1186,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
     </row>
-    <row r="33" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="33" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1136,7 +1200,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
-    <row r="34" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="34" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="7"/>
       <c r="C34" s="10"/>
@@ -1145,7 +1209,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:10" s="12" customFormat="1" ht="15.75">
+    <row r="35" spans="1:10" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="7"/>
       <c r="C35" s="10"/>
@@ -1156,7 +1220,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="7"/>
       <c r="C36" s="10"/>
@@ -1165,7 +1229,7 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" ht="15.75">
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37" s="7"/>
       <c r="C37" s="3"/>
@@ -1176,21 +1240,21 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="15.75">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -1207,14 +1271,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" customWidth="1"/>
     <col min="2" max="2" width="10" style="7" customWidth="1"/>
@@ -1222,7 +1286,7 @@
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1256,7 +1320,7 @@
       <c r="H2"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1331,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>47</v>
       </c>
@@ -1281,7 +1345,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>49</v>
       </c>
@@ -1303,7 +1367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>10</v>
       </c>
@@ -1314,7 +1378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>50</v>
       </c>
@@ -1325,7 +1389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>38</v>
       </c>
@@ -1339,7 +1403,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>51</v>
       </c>
@@ -1350,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
@@ -1361,7 +1425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>53</v>
       </c>
@@ -1372,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>54</v>
       </c>
@@ -1383,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>40</v>
       </c>
@@ -1394,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>55</v>
       </c>
@@ -1405,7 +1469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>22</v>
       </c>
@@ -1416,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1425,7 +1489,7 @@
         <v>-78325</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1433,7 +1497,7 @@
         <v>74502.41</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1451,4 +1515,318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="2824" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="21">
+        <v>12150</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="21">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="21">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="21">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="21">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="21">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="21">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="21">
+        <v>13370</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="21">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="21">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="21">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="21">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="21">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="21">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="21">
+        <v>4000</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="21">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="22"/>
+    </row>
+    <row r="32" spans="2:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="22"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="21">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="21">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="21">
+        <f>SUM(C2:C36)</f>
+        <v>196770</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>